--- a/EWU_Dashboard_InputTemplate.xlsx
+++ b/EWU_Dashboard_InputTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarahSchmidt\Documents\sourcetree\MoEWe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E21A16-CED2-4F95-8A43-A98AF8738B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1345C3-30FE-43C5-AB9F-A445AD2590A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,7 +951,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sarah Schmidt:</t>
         </r>
@@ -960,7 +960,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 ILCD (Hg.) (2011): Recommendations for Life Cycle Impact Assessment in the European context.</t>
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="619">
   <si>
     <t>input</t>
   </si>
@@ -3260,6 +3260,21 @@
   <si>
     <t>WMS</t>
   </si>
+  <si>
+    <t>Impact-based Weighting</t>
+  </si>
+  <si>
+    <t>Impact-based Weighting + Importance and Robustness (Sala et al. 2018)</t>
+  </si>
+  <si>
+    <t>Impact-based Weighting + Distance-to-Target (Castellani et al. 2016)</t>
+  </si>
+  <si>
+    <t>Impact-based Weighting + Planetary Boundaries (Bjorn &amp; Hauschild 2015)</t>
+  </si>
+  <si>
+    <t>Impact-based Weighting + Quality and Maturity (ILCD 2011)</t>
+  </si>
 </sst>
 </file>
 
@@ -3269,7 +3284,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3436,19 +3451,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -5058,9 +5060,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5710,123 +5710,128 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5968291D-018D-489B-8F0A-6761B796FEB6}">
   <sheetPr codeName="Tabelle12"/>
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.08984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="22" width="14.7265625" style="25" customWidth="1"/>
-    <col min="23" max="16384" width="8.81640625" style="22"/>
+    <col min="2" max="27" width="14.7265625" style="25" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="78" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>617</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="U1" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="V1" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="W1" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="X1" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="Y1" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="Z1" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="AA1" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24">
         <f>1/16</f>
         <v>6.25E-2</v>
       </c>
-      <c r="C2" s="24">
+      <c r="H2" s="24">
         <v>0.21059999999999998</v>
       </c>
-      <c r="D2" s="24">
+      <c r="I2" s="24">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="E2" s="24">
+      <c r="J2" s="24">
         <v>0.25</v>
       </c>
-      <c r="F2" s="24">
+      <c r="K2" s="24">
         <v>0.11278195488721804</v>
       </c>
-      <c r="G2" s="24">
+      <c r="L2" s="24">
         <v>1</v>
       </c>
-      <c r="H2" s="24">
-        <v>0</v>
-      </c>
-      <c r="I2" s="24">
-        <v>0</v>
-      </c>
-      <c r="J2" s="24">
-        <v>0</v>
-      </c>
-      <c r="K2" s="24">
-        <v>0</v>
-      </c>
-      <c r="L2" s="24">
-        <v>0</v>
-      </c>
       <c r="M2" s="24">
         <v>0</v>
       </c>
@@ -5857,48 +5862,53 @@
       <c r="V2" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W2" s="24">
+        <v>0</v>
+      </c>
+      <c r="X2" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="24">
-        <f t="shared" ref="B3:B17" si="0">1/16</f>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24">
+        <f t="shared" ref="G3:G17" si="0">1/16</f>
         <v>6.25E-2</v>
       </c>
-      <c r="C3" s="24">
+      <c r="H3" s="24">
         <v>6.3099999999999989E-2</v>
       </c>
-      <c r="D3" s="24">
+      <c r="I3" s="24">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="E3" s="24">
+      <c r="J3" s="24">
         <v>0.01</v>
       </c>
-      <c r="F3" s="24">
+      <c r="K3" s="24">
         <v>0.11278195488721804</v>
       </c>
-      <c r="G3" s="24">
-        <v>0</v>
-      </c>
-      <c r="H3" s="24">
+      <c r="L3" s="24">
+        <v>0</v>
+      </c>
+      <c r="M3" s="24">
         <v>1</v>
       </c>
-      <c r="I3" s="24">
-        <v>0</v>
-      </c>
-      <c r="J3" s="24">
-        <v>0</v>
-      </c>
-      <c r="K3" s="24">
-        <v>0</v>
-      </c>
-      <c r="L3" s="24">
-        <v>0</v>
-      </c>
-      <c r="M3" s="24">
-        <v>0</v>
-      </c>
       <c r="N3" s="24">
         <v>0</v>
       </c>
@@ -5926,51 +5936,56 @@
       <c r="V3" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3" s="24">
+        <v>0</v>
+      </c>
+      <c r="X3" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C4" s="24">
+      <c r="H4" s="24">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="D4" s="24">
+      <c r="I4" s="24">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="E4" s="24">
-        <v>0</v>
-      </c>
-      <c r="F4" s="24">
+      <c r="J4" s="24">
+        <v>0</v>
+      </c>
+      <c r="K4" s="24">
         <v>4.5112781954887216E-2</v>
       </c>
-      <c r="G4" s="24">
-        <v>0</v>
-      </c>
-      <c r="H4" s="24">
-        <v>0</v>
-      </c>
-      <c r="I4" s="24">
+      <c r="L4" s="24">
+        <v>0</v>
+      </c>
+      <c r="M4" s="24">
+        <v>0</v>
+      </c>
+      <c r="N4" s="24">
         <v>1</v>
       </c>
-      <c r="J4" s="24">
-        <v>0</v>
-      </c>
-      <c r="K4" s="24">
-        <v>0</v>
-      </c>
-      <c r="L4" s="24">
-        <v>0</v>
-      </c>
-      <c r="M4" s="24">
-        <v>0</v>
-      </c>
-      <c r="N4" s="24">
-        <v>0</v>
-      </c>
       <c r="O4" s="24">
         <v>0</v>
       </c>
@@ -5995,54 +6010,59 @@
       <c r="V4" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4" s="24">
+        <v>0</v>
+      </c>
+      <c r="X4" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C5" s="24">
+      <c r="H5" s="24">
         <v>1.84E-2</v>
       </c>
-      <c r="D5" s="24">
+      <c r="I5" s="24">
         <v>5.8499999999999996E-2</v>
       </c>
-      <c r="E5" s="24">
-        <v>0</v>
-      </c>
-      <c r="F5" s="24">
+      <c r="J5" s="24">
+        <v>0</v>
+      </c>
+      <c r="K5" s="24">
         <v>4.5112781954887216E-2</v>
       </c>
-      <c r="G5" s="24">
-        <v>0</v>
-      </c>
-      <c r="H5" s="24">
-        <v>0</v>
-      </c>
-      <c r="I5" s="24">
-        <v>0</v>
-      </c>
-      <c r="J5" s="24">
+      <c r="L5" s="24">
+        <v>0</v>
+      </c>
+      <c r="M5" s="24">
+        <v>0</v>
+      </c>
+      <c r="N5" s="24">
+        <v>0</v>
+      </c>
+      <c r="O5" s="24">
         <v>1</v>
       </c>
-      <c r="K5" s="24">
-        <v>0</v>
-      </c>
-      <c r="L5" s="24">
-        <v>0</v>
-      </c>
-      <c r="M5" s="24">
-        <v>0</v>
-      </c>
-      <c r="N5" s="24">
-        <v>0</v>
-      </c>
-      <c r="O5" s="24">
-        <v>0</v>
-      </c>
       <c r="P5" s="24">
         <v>0</v>
       </c>
@@ -6064,57 +6084,62 @@
       <c r="V5" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5" s="24">
+        <v>0</v>
+      </c>
+      <c r="X5" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C6" s="24">
+      <c r="H6" s="24">
         <v>8.9600000000000013E-2</v>
       </c>
-      <c r="D6" s="24">
+      <c r="I6" s="24">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="E6" s="24">
-        <v>0</v>
-      </c>
-      <c r="F6" s="24">
+      <c r="J6" s="24">
+        <v>0</v>
+      </c>
+      <c r="K6" s="24">
         <v>0.11278195488721804</v>
       </c>
-      <c r="G6" s="24">
-        <v>0</v>
-      </c>
-      <c r="H6" s="24">
-        <v>0</v>
-      </c>
-      <c r="I6" s="24">
-        <v>0</v>
-      </c>
-      <c r="J6" s="24">
-        <v>0</v>
-      </c>
-      <c r="K6" s="24">
+      <c r="L6" s="24">
+        <v>0</v>
+      </c>
+      <c r="M6" s="24">
+        <v>0</v>
+      </c>
+      <c r="N6" s="24">
+        <v>0</v>
+      </c>
+      <c r="O6" s="24">
+        <v>0</v>
+      </c>
+      <c r="P6" s="24">
         <v>1</v>
       </c>
-      <c r="L6" s="24">
-        <v>0</v>
-      </c>
-      <c r="M6" s="24">
-        <v>0</v>
-      </c>
-      <c r="N6" s="24">
-        <v>0</v>
-      </c>
-      <c r="O6" s="24">
-        <v>0</v>
-      </c>
-      <c r="P6" s="24">
-        <v>0</v>
-      </c>
       <c r="Q6" s="24">
         <v>0</v>
       </c>
@@ -6133,60 +6158,65 @@
       <c r="V6" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6" s="24">
+        <v>0</v>
+      </c>
+      <c r="X6" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C7" s="24">
+      <c r="H7" s="24">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="D7" s="24">
+      <c r="I7" s="24">
         <v>5.7699999999999994E-2</v>
       </c>
-      <c r="E7" s="24">
-        <v>0</v>
-      </c>
-      <c r="F7" s="24">
+      <c r="J7" s="24">
+        <v>0</v>
+      </c>
+      <c r="K7" s="24">
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="G7" s="24">
-        <v>0</v>
-      </c>
-      <c r="H7" s="24">
-        <v>0</v>
-      </c>
-      <c r="I7" s="24">
-        <v>0</v>
-      </c>
-      <c r="J7" s="24">
-        <v>0</v>
-      </c>
-      <c r="K7" s="24">
-        <v>0</v>
-      </c>
       <c r="L7" s="24">
+        <v>0</v>
+      </c>
+      <c r="M7" s="24">
+        <v>0</v>
+      </c>
+      <c r="N7" s="24">
+        <v>0</v>
+      </c>
+      <c r="O7" s="24">
+        <v>0</v>
+      </c>
+      <c r="P7" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="24">
         <v>1</v>
       </c>
-      <c r="M7" s="24">
-        <v>0</v>
-      </c>
-      <c r="N7" s="24">
-        <v>0</v>
-      </c>
-      <c r="O7" s="24">
-        <v>0</v>
-      </c>
-      <c r="P7" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>0</v>
-      </c>
       <c r="R7" s="24">
         <v>0</v>
       </c>
@@ -6202,63 +6232,68 @@
       <c r="V7" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7" s="24">
+        <v>0</v>
+      </c>
+      <c r="X7" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C8" s="24">
+      <c r="H8" s="24">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="D8" s="24">
+      <c r="I8" s="24">
         <v>7.3700000000000002E-2</v>
       </c>
-      <c r="E8" s="24">
+      <c r="J8" s="24">
         <v>0.34</v>
       </c>
-      <c r="F8" s="24">
+      <c r="K8" s="24">
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="24">
-        <v>0</v>
-      </c>
-      <c r="I8" s="24">
-        <v>0</v>
-      </c>
-      <c r="J8" s="24">
-        <v>0</v>
-      </c>
-      <c r="K8" s="24">
-        <v>0</v>
-      </c>
       <c r="L8" s="24">
         <v>0</v>
       </c>
       <c r="M8" s="24">
+        <v>0</v>
+      </c>
+      <c r="N8" s="24">
+        <v>0</v>
+      </c>
+      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="P8" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>0</v>
+      </c>
+      <c r="R8" s="24">
         <v>1</v>
       </c>
-      <c r="N8" s="24">
-        <v>0</v>
-      </c>
-      <c r="O8" s="24">
-        <v>0</v>
-      </c>
-      <c r="P8" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="24">
-        <v>0</v>
-      </c>
-      <c r="R8" s="24">
-        <v>0</v>
-      </c>
       <c r="S8" s="24">
         <v>0</v>
       </c>
@@ -6271,42 +6306,47 @@
       <c r="V8" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8" s="24">
+        <v>0</v>
+      </c>
+      <c r="X8" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C9" s="24">
+      <c r="H9" s="24">
         <v>6.2E-2</v>
       </c>
-      <c r="D9" s="24">
+      <c r="I9" s="24">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E9" s="24">
+      <c r="J9" s="24">
         <v>0.01</v>
       </c>
-      <c r="F9" s="24">
+      <c r="K9" s="24">
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="G9" s="24">
-        <v>0</v>
-      </c>
-      <c r="H9" s="24">
-        <v>0</v>
-      </c>
-      <c r="I9" s="24">
-        <v>0</v>
-      </c>
-      <c r="J9" s="24">
-        <v>0</v>
-      </c>
-      <c r="K9" s="24">
-        <v>0</v>
-      </c>
       <c r="L9" s="24">
         <v>0</v>
       </c>
@@ -6314,23 +6354,23 @@
         <v>0</v>
       </c>
       <c r="N9" s="24">
+        <v>0</v>
+      </c>
+      <c r="O9" s="24">
+        <v>0</v>
+      </c>
+      <c r="P9" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>0</v>
+      </c>
+      <c r="R9" s="24">
+        <v>0</v>
+      </c>
+      <c r="S9" s="24">
         <v>1</v>
       </c>
-      <c r="O9" s="24">
-        <v>0</v>
-      </c>
-      <c r="P9" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>0</v>
-      </c>
-      <c r="R9" s="24">
-        <v>0</v>
-      </c>
-      <c r="S9" s="24">
-        <v>0</v>
-      </c>
       <c r="T9" s="24">
         <v>0</v>
       </c>
@@ -6340,42 +6380,47 @@
       <c r="V9" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9" s="24">
+        <v>0</v>
+      </c>
+      <c r="X9" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C10" s="24">
+      <c r="H10" s="24">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="D10" s="24">
+      <c r="I10" s="24">
         <v>6.5700000000000008E-2</v>
       </c>
-      <c r="E10" s="24">
+      <c r="J10" s="24">
         <v>0.01</v>
       </c>
-      <c r="F10" s="24">
+      <c r="K10" s="24">
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="G10" s="24">
-        <v>0</v>
-      </c>
-      <c r="H10" s="24">
-        <v>0</v>
-      </c>
-      <c r="I10" s="24">
-        <v>0</v>
-      </c>
-      <c r="J10" s="24">
-        <v>0</v>
-      </c>
-      <c r="K10" s="24">
-        <v>0</v>
-      </c>
       <c r="L10" s="24">
         <v>0</v>
       </c>
@@ -6386,65 +6431,70 @@
         <v>0</v>
       </c>
       <c r="O10" s="24">
+        <v>0</v>
+      </c>
+      <c r="P10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>0</v>
+      </c>
+      <c r="R10" s="24">
+        <v>0</v>
+      </c>
+      <c r="S10" s="24">
+        <v>0</v>
+      </c>
+      <c r="T10" s="24">
         <v>1</v>
       </c>
-      <c r="P10" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="24">
-        <v>0</v>
-      </c>
-      <c r="R10" s="24">
-        <v>0</v>
-      </c>
-      <c r="S10" s="24">
-        <v>0</v>
-      </c>
-      <c r="T10" s="24">
-        <v>0</v>
-      </c>
       <c r="U10" s="24">
         <v>0</v>
       </c>
       <c r="V10" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10" s="24">
+        <v>0</v>
+      </c>
+      <c r="X10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C11" s="24">
+      <c r="H11" s="24">
         <v>2.7999999999999997E-2</v>
       </c>
-      <c r="D11" s="24">
+      <c r="I11" s="24">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="E11" s="24">
+      <c r="J11" s="24">
         <v>0.09</v>
       </c>
-      <c r="F11" s="24">
+      <c r="K11" s="24">
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="G11" s="24">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
-        <v>0</v>
-      </c>
-      <c r="I11" s="24">
-        <v>0</v>
-      </c>
-      <c r="J11" s="24">
-        <v>0</v>
-      </c>
-      <c r="K11" s="24">
-        <v>0</v>
-      </c>
       <c r="L11" s="24">
         <v>0</v>
       </c>
@@ -6458,62 +6508,67 @@
         <v>0</v>
       </c>
       <c r="P11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>0</v>
+      </c>
+      <c r="R11" s="24">
+        <v>0</v>
+      </c>
+      <c r="S11" s="24">
+        <v>0</v>
+      </c>
+      <c r="T11" s="24">
+        <v>0</v>
+      </c>
+      <c r="U11" s="24">
         <v>1</v>
       </c>
-      <c r="Q11" s="24">
-        <v>0</v>
-      </c>
-      <c r="R11" s="24">
-        <v>0</v>
-      </c>
-      <c r="S11" s="24">
-        <v>0</v>
-      </c>
-      <c r="T11" s="24">
-        <v>0</v>
-      </c>
-      <c r="U11" s="24">
-        <v>0</v>
-      </c>
       <c r="V11" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11" s="24">
+        <v>0</v>
+      </c>
+      <c r="X11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C12" s="24">
+      <c r="H12" s="24">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="D12" s="24">
+      <c r="I12" s="24">
         <v>6.5299999999999997E-2</v>
       </c>
-      <c r="E12" s="24">
+      <c r="J12" s="24">
         <v>0.01</v>
       </c>
-      <c r="F12" s="24">
+      <c r="K12" s="24">
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="G12" s="24">
-        <v>0</v>
-      </c>
-      <c r="H12" s="24">
-        <v>0</v>
-      </c>
-      <c r="I12" s="24">
-        <v>0</v>
-      </c>
-      <c r="J12" s="24">
-        <v>0</v>
-      </c>
-      <c r="K12" s="24">
-        <v>0</v>
-      </c>
       <c r="L12" s="24">
         <v>0</v>
       </c>
@@ -6530,59 +6585,64 @@
         <v>0</v>
       </c>
       <c r="Q12" s="24">
+        <v>0</v>
+      </c>
+      <c r="R12" s="24">
+        <v>0</v>
+      </c>
+      <c r="S12" s="24">
+        <v>0</v>
+      </c>
+      <c r="T12" s="24">
+        <v>0</v>
+      </c>
+      <c r="U12" s="24">
+        <v>0</v>
+      </c>
+      <c r="V12" s="24">
         <v>1</v>
       </c>
-      <c r="R12" s="24">
-        <v>0</v>
-      </c>
-      <c r="S12" s="24">
-        <v>0</v>
-      </c>
-      <c r="T12" s="24">
-        <v>0</v>
-      </c>
-      <c r="U12" s="24">
-        <v>0</v>
-      </c>
-      <c r="V12" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W12" s="24">
+        <v>0</v>
+      </c>
+      <c r="X12" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C13" s="24">
+      <c r="H13" s="24">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="D13" s="24">
+      <c r="I13" s="24">
         <v>5.7699999999999994E-2</v>
       </c>
-      <c r="E13" s="24">
+      <c r="J13" s="24">
         <v>0.25</v>
       </c>
-      <c r="F13" s="24">
+      <c r="K13" s="24">
         <v>4.5112781954887216E-2</v>
       </c>
-      <c r="G13" s="24">
-        <v>0</v>
-      </c>
-      <c r="H13" s="24">
-        <v>0</v>
-      </c>
-      <c r="I13" s="24">
-        <v>0</v>
-      </c>
-      <c r="J13" s="24">
-        <v>0</v>
-      </c>
-      <c r="K13" s="24">
-        <v>0</v>
-      </c>
       <c r="L13" s="24">
         <v>0</v>
       </c>
@@ -6602,56 +6662,61 @@
         <v>0</v>
       </c>
       <c r="R13" s="24">
+        <v>0</v>
+      </c>
+      <c r="S13" s="24">
+        <v>0</v>
+      </c>
+      <c r="T13" s="24">
+        <v>0</v>
+      </c>
+      <c r="U13" s="24">
+        <v>0</v>
+      </c>
+      <c r="V13" s="24">
+        <v>0</v>
+      </c>
+      <c r="W13" s="24">
         <v>1</v>
       </c>
-      <c r="S13" s="24">
-        <v>0</v>
-      </c>
-      <c r="T13" s="24">
-        <v>0</v>
-      </c>
-      <c r="U13" s="24">
-        <v>0</v>
-      </c>
-      <c r="V13" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X13" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C14" s="24">
+      <c r="H14" s="24">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="D14" s="24">
+      <c r="I14" s="24">
         <v>6.0599999999999994E-2</v>
       </c>
-      <c r="E14" s="24">
+      <c r="J14" s="24">
         <v>0.02</v>
       </c>
-      <c r="F14" s="24">
+      <c r="K14" s="24">
         <v>3.7593984962406013E-2</v>
       </c>
-      <c r="G14" s="24">
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
-        <v>0</v>
-      </c>
-      <c r="I14" s="24">
-        <v>0</v>
-      </c>
-      <c r="J14" s="24">
-        <v>0</v>
-      </c>
-      <c r="K14" s="24">
-        <v>0</v>
-      </c>
       <c r="L14" s="24">
         <v>0</v>
       </c>
@@ -6674,53 +6739,58 @@
         <v>0</v>
       </c>
       <c r="S14" s="24">
+        <v>0</v>
+      </c>
+      <c r="T14" s="24">
+        <v>0</v>
+      </c>
+      <c r="U14" s="24">
+        <v>0</v>
+      </c>
+      <c r="V14" s="24">
+        <v>0</v>
+      </c>
+      <c r="W14" s="24">
+        <v>0</v>
+      </c>
+      <c r="X14" s="24">
         <v>1</v>
       </c>
-      <c r="T14" s="24">
-        <v>0</v>
-      </c>
-      <c r="U14" s="24">
-        <v>0</v>
-      </c>
-      <c r="V14" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Y14" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C15" s="24">
+      <c r="H15" s="24">
         <v>8.5099999999999995E-2</v>
       </c>
-      <c r="D15" s="24">
+      <c r="I15" s="24">
         <v>5.7699999999999994E-2</v>
       </c>
-      <c r="E15" s="24">
+      <c r="J15" s="24">
         <v>0.01</v>
       </c>
-      <c r="F15" s="24">
+      <c r="K15" s="24">
         <v>3.7593984962406013E-2</v>
       </c>
-      <c r="G15" s="24">
-        <v>0</v>
-      </c>
-      <c r="H15" s="24">
-        <v>0</v>
-      </c>
-      <c r="I15" s="24">
-        <v>0</v>
-      </c>
-      <c r="J15" s="24">
-        <v>0</v>
-      </c>
-      <c r="K15" s="24">
-        <v>0</v>
-      </c>
       <c r="L15" s="24">
         <v>0</v>
       </c>
@@ -6746,50 +6816,55 @@
         <v>0</v>
       </c>
       <c r="T15" s="24">
+        <v>0</v>
+      </c>
+      <c r="U15" s="24">
+        <v>0</v>
+      </c>
+      <c r="V15" s="24">
+        <v>0</v>
+      </c>
+      <c r="W15" s="24">
+        <v>0</v>
+      </c>
+      <c r="X15" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="24">
         <v>1</v>
       </c>
-      <c r="U15" s="24">
-        <v>0</v>
-      </c>
-      <c r="V15" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z15" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C16" s="24">
+      <c r="H16" s="24">
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="D16" s="24">
+      <c r="I16" s="24">
         <v>5.7699999999999994E-2</v>
       </c>
-      <c r="E16" s="24">
-        <v>0</v>
-      </c>
-      <c r="F16" s="24">
+      <c r="J16" s="24">
+        <v>0</v>
+      </c>
+      <c r="K16" s="24">
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="G16" s="24">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24">
-        <v>0</v>
-      </c>
-      <c r="I16" s="24">
-        <v>0</v>
-      </c>
-      <c r="J16" s="24">
-        <v>0</v>
-      </c>
-      <c r="K16" s="24">
-        <v>0</v>
-      </c>
       <c r="L16" s="24">
         <v>0</v>
       </c>
@@ -6818,47 +6893,52 @@
         <v>0</v>
       </c>
       <c r="U16" s="24">
+        <v>0</v>
+      </c>
+      <c r="V16" s="24">
+        <v>0</v>
+      </c>
+      <c r="W16" s="24">
+        <v>0</v>
+      </c>
+      <c r="X16" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="24">
         <v>1</v>
       </c>
-      <c r="V16" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AA16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C17" s="24">
+      <c r="H17" s="24">
         <v>8.3199999999999996E-2</v>
       </c>
-      <c r="D17" s="24">
+      <c r="I17" s="24">
         <v>5.7699999999999994E-2</v>
       </c>
-      <c r="E17" s="24">
-        <v>0</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="J17" s="24">
+        <v>0</v>
+      </c>
+      <c r="K17" s="24">
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="G17" s="24">
-        <v>0</v>
-      </c>
-      <c r="H17" s="24">
-        <v>0</v>
-      </c>
-      <c r="I17" s="24">
-        <v>0</v>
-      </c>
-      <c r="J17" s="24">
-        <v>0</v>
-      </c>
-      <c r="K17" s="24">
-        <v>0</v>
-      </c>
       <c r="L17" s="24">
         <v>0</v>
       </c>
@@ -6890,6 +6970,21 @@
         <v>0</v>
       </c>
       <c r="V17" s="24">
+        <v>0</v>
+      </c>
+      <c r="W17" s="24">
+        <v>0</v>
+      </c>
+      <c r="X17" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="24">
         <v>1</v>
       </c>
     </row>

--- a/EWU_Dashboard_InputTemplate.xlsx
+++ b/EWU_Dashboard_InputTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarahSchmidt\Documents\sourcetree\MoEWe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1345C3-30FE-43C5-AB9F-A445AD2590A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E514AC2-5F21-4F18-B537-EC0D20B48D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserGuide" sheetId="4" r:id="rId1"/>
@@ -3261,19 +3261,19 @@
     <t>WMS</t>
   </si>
   <si>
-    <t>Impact-based Weighting</t>
-  </si>
-  <si>
-    <t>Impact-based Weighting + Importance and Robustness (Sala et al. 2018)</t>
-  </si>
-  <si>
-    <t>Impact-based Weighting + Distance-to-Target (Castellani et al. 2016)</t>
-  </si>
-  <si>
-    <t>Impact-based Weighting + Planetary Boundaries (Bjorn &amp; Hauschild 2015)</t>
-  </si>
-  <si>
-    <t>Impact-based Weighting + Quality and Maturity (ILCD 2011)</t>
+    <t>Weighting based on impact size</t>
+  </si>
+  <si>
+    <t>Weighting based on impact size + Importance and Robustness (Sala et al. 2018)</t>
+  </si>
+  <si>
+    <t>Weighting based on impact size + Distance-to-Target (Castellani et al. 2016)</t>
+  </si>
+  <si>
+    <t>Weighting based on impact size + Planetary Boundaries (Bjorn &amp; Hauschild 2015)</t>
+  </si>
+  <si>
+    <t>Weighting based on impact size + Quality and Maturity (ILCD 2011)</t>
   </si>
 </sst>
 </file>
@@ -5060,7 +5060,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5712,8 +5712,8 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5723,7 +5723,7 @@
     <col min="28" max="16384" width="8.81640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="78" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="91" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="23" t="s">
         <v>614</v>

--- a/EWU_Dashboard_InputTemplate.xlsx
+++ b/EWU_Dashboard_InputTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarahSchmidt\Documents\sourcetree\MoEWe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E514AC2-5F21-4F18-B537-EC0D20B48D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D442DB-1C37-44D4-9D03-EC150A5C10E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserGuide" sheetId="4" r:id="rId1"/>
@@ -1705,9 +1705,6 @@
     <t>LCIA Method</t>
   </si>
   <si>
-    <t>Environmental Waste Utilization quantifies the share of the environmental value of disposed materials which is utilized through waste management.</t>
-  </si>
-  <si>
     <t>Person Equivalents</t>
   </si>
   <si>
@@ -1720,9 +1717,6 @@
     <t>Shared Socioeconomic Pathway (SSP)</t>
   </si>
   <si>
-    <t>Weighting factors that are used for aggregating impact category wise calculated impacts and indicator scores.</t>
-  </si>
-  <si>
     <t>Source of an exchange.</t>
   </si>
   <si>
@@ -1735,16 +1729,10 @@
     <t xml:space="preserve">Exchanges link activities and are defined by a source (input) and a target (activity). </t>
   </si>
   <si>
-    <t>Shared Socioeconomic Pathways are scenarios of projected socioeconomic global changes related to different climate policies. SSP2 ("Middle of the road") describes a scenario in which social, economic, and technological trends follow historical patterns.</t>
-  </si>
-  <si>
     <t>Representative Concentration Pathway (RCP)</t>
   </si>
   <si>
     <t>Unit of normalized LCA results. A person equivalent quantifies the environmental impact caused annually by the activities of an average person.</t>
-  </si>
-  <si>
-    <t>According to ISO 14044 (ISO 2006), normalization is an optional step of life cycle impact assessment (LCIA) in which impacts are divided by normalization factors. Normalization factors represent the average impact of a person in a reference region for a certain impact category in a reference year.</t>
   </si>
   <si>
     <t>A set of characterization factors that is assigned to elementary flows (biosphere exchanges).</t>
@@ -3274,6 +3262,18 @@
   </si>
   <si>
     <t>Weighting based on impact size + Quality and Maturity (ILCD 2011)</t>
+  </si>
+  <si>
+    <t>Environmental Waste Utilization quantifies the share of the environmental value of disposed materials which is preserved through waste management.</t>
+  </si>
+  <si>
+    <t>Normalization is an optional step of life cycle impact assessment (LCIA) in which impacts are divided by normalization factors (ISO 14044-2006). Normalization factors reflect the average impact of a person in a reference region for a specific impact category in a reference year.</t>
+  </si>
+  <si>
+    <t>Shared Socioeconomic Pathways describe scenarios of projected socioeconomic global changes related to different climate policies. SSP2 ("Middle of the road") describes a scenario in which social, economic, and technological trends follow historical patterns (cf. https://en.wikipedia.org/wiki/Shared_Socioeconomic_Pathways).</t>
+  </si>
+  <si>
+    <t>Weighting factors are used to aggregate impact category wise calculated impacts and indicator scores.</t>
   </si>
 </sst>
 </file>
@@ -5060,7 +5060,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5080,12 +5080,12 @@
     </row>
     <row r="2" spans="1:2" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B4" s="75"/>
     </row>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="74" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B7" s="73"/>
     </row>
@@ -5126,7 +5126,7 @@
         <v>168</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28" x14ac:dyDescent="0.3">
@@ -5134,7 +5134,7 @@
         <v>170</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5171,10 +5171,10 @@
     </row>
     <row r="18" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -5198,15 +5198,15 @@
         <v>175</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +5263,7 @@
         <v>140</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.35">
@@ -5712,7 +5712,7 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
@@ -5726,19 +5726,19 @@
     <row r="1" spans="1:27" ht="91" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>614</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>615</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>616</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>617</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>618</v>
       </c>
       <c r="G1" s="23" t="s">
         <v>191</v>
@@ -7015,10 +7015,10 @@
     </row>
     <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C2" s="64"/>
     </row>
@@ -7074,7 +7074,7 @@
     </row>
     <row r="2" spans="1:11" s="28" customFormat="1" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -7116,7 +7116,7 @@
     </row>
     <row r="4" spans="1:11" s="28" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="26"/>
@@ -7163,7 +7163,7 @@
     </row>
     <row r="7" spans="1:11" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="74" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B7" s="73"/>
       <c r="C7" s="26"/>
@@ -7195,10 +7195,10 @@
     </row>
     <row r="11" spans="1:11" s="28" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -7212,10 +7212,10 @@
     </row>
     <row r="12" spans="1:11" s="28" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="15" spans="1:11" s="28" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B15" s="77"/>
       <c r="C15" s="26"/>
@@ -7300,42 +7300,42 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -7343,135 +7343,135 @@
         <v>174</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>276</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -7489,7 +7489,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7512,7 +7512,7 @@
         <v>208</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7520,7 +7520,7 @@
         <v>209</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7528,7 +7528,7 @@
         <v>169</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28" x14ac:dyDescent="0.3">
@@ -7536,12 +7536,12 @@
         <v>211</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>225</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>214</v>
@@ -7552,7 +7552,7 @@
         <v>207</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28" x14ac:dyDescent="0.3">
@@ -7560,7 +7560,7 @@
         <v>210</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7568,15 +7568,15 @@
         <v>199</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7584,23 +7584,23 @@
         <v>224</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="56" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>238</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="42" x14ac:dyDescent="0.3">
@@ -7608,7 +7608,7 @@
         <v>215</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="56" x14ac:dyDescent="0.3">
@@ -7616,7 +7616,7 @@
         <v>53</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="42" x14ac:dyDescent="0.3">
@@ -7624,15 +7624,15 @@
         <v>213</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7640,15 +7640,15 @@
         <v>216</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="56" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>235</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -7656,7 +7656,7 @@
         <v>212</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28" x14ac:dyDescent="0.3">
@@ -7664,7 +7664,7 @@
         <v>174</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>230</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -7720,10 +7720,10 @@
       </c>
       <c r="J1" s="67"/>
       <c r="K1" s="67" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L1" s="67" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M1" s="67"/>
     </row>
@@ -7747,10 +7747,10 @@
       </c>
       <c r="J2" s="67"/>
       <c r="K2" s="67" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L2" s="67" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M2" s="67"/>
     </row>
@@ -7864,13 +7864,13 @@
     </row>
     <row r="18" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B19" s="4"/>
     </row>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="22" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B22" s="4"/>
     </row>
@@ -7911,7 +7911,7 @@
     </row>
     <row r="27" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="65" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B27" s="4"/>
     </row>
@@ -7922,7 +7922,7 @@
     </row>
     <row r="30" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B30" s="4"/>
     </row>
@@ -7998,13 +7998,13 @@
         <v>32</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H1" s="50" t="s">
         <v>157</v>
       </c>
       <c r="I1" s="50" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J1" s="50" t="s">
         <v>33</v>
@@ -8106,10 +8106,10 @@
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>8</v>
@@ -8118,25 +8118,25 @@
         <v>9</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>8</v>
@@ -8145,25 +8145,25 @@
         <v>9</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>8</v>
@@ -8172,25 +8172,25 @@
         <v>9</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>8</v>
@@ -8199,17 +8199,17 @@
         <v>9</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K12" s="48" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8227,10 +8227,10 @@
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>8</v>
@@ -8240,24 +8240,24 @@
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K14" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>8</v>
@@ -8267,24 +8267,24 @@
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K15" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>8</v>
@@ -8294,24 +8294,24 @@
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K16" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>8</v>
@@ -8321,24 +8321,24 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>8</v>
@@ -8348,24 +8348,24 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K18" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>8</v>
@@ -8375,16 +8375,16 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -8402,10 +8402,10 @@
     </row>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>8</v>
@@ -8414,25 +8414,25 @@
         <v>9</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>8</v>
@@ -8441,17 +8441,17 @@
         <v>9</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -8495,10 +8495,10 @@
     </row>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>8</v>
@@ -8507,25 +8507,25 @@
         <v>9</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K26" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>8</v>
@@ -8534,17 +8534,17 @@
         <v>9</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K27" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -8601,10 +8601,10 @@
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>8</v>
@@ -8613,25 +8613,25 @@
         <v>9</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K32" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>8</v>
@@ -8640,17 +8640,17 @@
         <v>9</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K33" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -8694,10 +8694,10 @@
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>8</v>
@@ -8706,27 +8706,27 @@
         <v>9</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K37" s="48" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>8</v>
@@ -8735,27 +8735,27 @@
         <v>9</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K38" s="48" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>8</v>
@@ -8764,27 +8764,27 @@
         <v>9</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K39" s="48" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>8</v>
@@ -8793,27 +8793,27 @@
         <v>9</v>
       </c>
       <c r="E40" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>575</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>579</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K40" s="48" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>8</v>
@@ -8822,27 +8822,27 @@
         <v>9</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K41" s="48" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>8</v>
@@ -8851,19 +8851,19 @@
         <v>9</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K42" s="48" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -8920,10 +8920,10 @@
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>8</v>
@@ -8933,24 +8933,24 @@
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K47" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>8</v>
@@ -8960,24 +8960,24 @@
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K48" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>8</v>
@@ -8987,24 +8987,24 @@
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K49" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>8</v>
@@ -9014,24 +9014,24 @@
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K50" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>8</v>
@@ -9041,24 +9041,24 @@
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K51" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>8</v>
@@ -9068,24 +9068,24 @@
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K52" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>8</v>
@@ -9094,25 +9094,25 @@
         <v>9</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K53" s="48" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
@@ -9121,25 +9121,25 @@
         <v>9</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K54" s="48" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -9148,25 +9148,25 @@
         <v>9</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K55" s="48" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>8</v>
@@ -9175,25 +9175,25 @@
         <v>9</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K56" s="48" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
@@ -9202,25 +9202,25 @@
         <v>9</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K57" s="48" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
@@ -9229,25 +9229,25 @@
         <v>9</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K58" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>8</v>
@@ -9256,25 +9256,25 @@
         <v>9</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
       <c r="J59" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K59" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>8</v>
@@ -9283,25 +9283,25 @@
         <v>9</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K60" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>8</v>
@@ -9310,25 +9310,25 @@
         <v>9</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K61" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>8</v>
@@ -9337,25 +9337,25 @@
         <v>9</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K62" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>8</v>
@@ -9364,25 +9364,25 @@
         <v>9</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K63" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>8</v>
@@ -9391,25 +9391,25 @@
         <v>9</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K64" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>8</v>
@@ -9418,25 +9418,25 @@
         <v>9</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K65" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>8</v>
@@ -9445,25 +9445,25 @@
         <v>9</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K66" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>8</v>
@@ -9472,25 +9472,25 @@
         <v>9</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K67" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>8</v>
@@ -9499,25 +9499,25 @@
         <v>9</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K68" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>8</v>
@@ -9526,25 +9526,25 @@
         <v>9</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K69" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>8</v>
@@ -9553,25 +9553,25 @@
         <v>9</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K70" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>8</v>
@@ -9580,25 +9580,25 @@
         <v>9</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
       <c r="J71" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K71" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>8</v>
@@ -9607,25 +9607,25 @@
         <v>9</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
       <c r="J72" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K72" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="47" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>8</v>
@@ -9634,25 +9634,25 @@
         <v>9</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K73" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="47" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>8</v>
@@ -9661,25 +9661,25 @@
         <v>9</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K74" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>8</v>
@@ -9688,25 +9688,25 @@
         <v>9</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K75" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>8</v>
@@ -9715,25 +9715,25 @@
         <v>9</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K76" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>8</v>
@@ -9742,25 +9742,25 @@
         <v>9</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K77" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>8</v>
@@ -9769,25 +9769,25 @@
         <v>9</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K78" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>8</v>
@@ -9796,25 +9796,25 @@
         <v>9</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K79" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>8</v>
@@ -9823,25 +9823,25 @@
         <v>9</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K80" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>8</v>
@@ -9850,25 +9850,25 @@
         <v>9</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K81" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>8</v>
@@ -9877,25 +9877,25 @@
         <v>9</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
       <c r="J82" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K82" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>8</v>
@@ -9904,25 +9904,25 @@
         <v>9</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
       <c r="J83" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K83" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="47" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>8</v>
@@ -9931,25 +9931,25 @@
         <v>9</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
       <c r="J84" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K84" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>8</v>
@@ -9958,25 +9958,25 @@
         <v>9</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
       <c r="J85" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K85" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>8</v>
@@ -9985,25 +9985,25 @@
         <v>9</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
       <c r="J86" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K86" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>8</v>
@@ -10012,25 +10012,25 @@
         <v>9</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
       <c r="J87" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K87" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="47" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>8</v>
@@ -10039,17 +10039,17 @@
         <v>9</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
       <c r="J88" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K88" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -10093,10 +10093,10 @@
     </row>
     <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>8</v>
@@ -10105,17 +10105,17 @@
         <v>9</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
       <c r="J92" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K92" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -10159,10 +10159,10 @@
     </row>
     <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>8</v>
@@ -10171,25 +10171,25 @@
         <v>9</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
       <c r="J96" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>8</v>
@@ -10198,25 +10198,25 @@
         <v>9</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
       <c r="J97" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K97" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>8</v>
@@ -10225,25 +10225,25 @@
         <v>9</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
       <c r="J98" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K98" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>8</v>
@@ -10252,17 +10252,17 @@
         <v>9</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
       <c r="J99" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K99" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -10280,10 +10280,10 @@
     </row>
     <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>8</v>
@@ -10292,25 +10292,25 @@
         <v>9</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
       <c r="J101" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K101" s="48" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>8</v>
@@ -10319,25 +10319,25 @@
         <v>9</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
       <c r="J102" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K102" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="47" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>8</v>
@@ -10346,17 +10346,17 @@
         <v>9</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
       <c r="J103" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K103" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -10374,10 +10374,10 @@
     </row>
     <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>8</v>
@@ -10387,24 +10387,24 @@
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="10" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
       <c r="J105" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K105" s="48" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>8</v>
@@ -10414,24 +10414,24 @@
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
       <c r="J106" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K106" s="48" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>8</v>
@@ -10441,24 +10441,24 @@
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
       <c r="J107" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K107" s="48" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="47" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>8</v>
@@ -10468,24 +10468,24 @@
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="10" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
       <c r="J108" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K108" s="48" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>8</v>
@@ -10495,24 +10495,24 @@
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
       <c r="J109" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K109" s="48" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>8</v>
@@ -10522,24 +10522,24 @@
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
       <c r="J110" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K110" s="48" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>8</v>
@@ -10549,24 +10549,24 @@
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
       <c r="J111" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K111" s="48" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>8</v>
@@ -10576,24 +10576,24 @@
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
       <c r="J112" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K112" s="48" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>8</v>
@@ -10603,24 +10603,24 @@
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
       <c r="J113" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K113" s="48" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>8</v>
@@ -10630,24 +10630,24 @@
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="10" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="10"/>
       <c r="J114" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K114" s="48" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C115" s="10" t="s">
         <v>8</v>
@@ -10657,24 +10657,24 @@
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
       <c r="J115" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K115" s="48" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>8</v>
@@ -10684,24 +10684,24 @@
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="10" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
       <c r="I116" s="10"/>
       <c r="J116" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K116" s="48" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>8</v>
@@ -10712,23 +10712,23 @@
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
       <c r="G117" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H117" s="10"/>
       <c r="I117" s="10"/>
       <c r="J117" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K117" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="47" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>8</v>
@@ -10739,23 +10739,23 @@
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
       <c r="G118" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H118" s="10"/>
       <c r="I118" s="10"/>
       <c r="J118" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K118" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C119" s="10" t="s">
         <v>8</v>
@@ -10766,23 +10766,23 @@
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
       <c r="G119" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
       <c r="J119" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K119" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>8</v>
@@ -10793,23 +10793,23 @@
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
       <c r="G120" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H120" s="10"/>
       <c r="I120" s="10"/>
       <c r="J120" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K120" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="47" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C121" s="10" t="s">
         <v>8</v>
@@ -10820,23 +10820,23 @@
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
       <c r="G121" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H121" s="10"/>
       <c r="I121" s="10"/>
       <c r="J121" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K121" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="47" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C122" s="10" t="s">
         <v>8</v>
@@ -10847,15 +10847,15 @@
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
       <c r="G122" s="10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H122" s="10"/>
       <c r="I122" s="10"/>
       <c r="J122" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K122" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -10873,10 +10873,10 @@
     </row>
     <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="47" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>8</v>
@@ -10888,22 +10888,22 @@
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
       <c r="H124" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I124" s="10"/>
       <c r="J124" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K124" s="57" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="47" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C125" s="10" t="s">
         <v>8</v>
@@ -10912,25 +10912,25 @@
         <v>9</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
       <c r="I125" s="10"/>
       <c r="J125" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K125" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="47" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C126" s="10" t="s">
         <v>8</v>
@@ -10939,25 +10939,25 @@
         <v>9</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
       <c r="J126" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K126" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="47" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C127" s="10" t="s">
         <v>8</v>
@@ -10966,25 +10966,25 @@
         <v>9</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
       <c r="I127" s="10"/>
       <c r="J127" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K127" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="47" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>8</v>
@@ -10993,25 +10993,25 @@
         <v>9</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
       <c r="I128" s="10"/>
       <c r="J128" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K128" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="47" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>8</v>
@@ -11020,25 +11020,25 @@
         <v>9</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
       <c r="I129" s="10"/>
       <c r="J129" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K129" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="47" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>8</v>
@@ -11047,25 +11047,25 @@
         <v>9</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
       <c r="I130" s="10"/>
       <c r="J130" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K130" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="47" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>8</v>
@@ -11074,25 +11074,25 @@
         <v>9</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F131" s="10"/>
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
       <c r="I131" s="10"/>
       <c r="J131" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K131" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="47" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>8</v>
@@ -11101,25 +11101,25 @@
         <v>9</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
       <c r="I132" s="10"/>
       <c r="J132" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K132" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="47" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>8</v>
@@ -11128,25 +11128,25 @@
         <v>9</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
       <c r="I133" s="10"/>
       <c r="J133" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K133" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="47" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>8</v>
@@ -11155,25 +11155,25 @@
         <v>9</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
       <c r="I134" s="10"/>
       <c r="J134" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K134" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="47" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C135" s="10" t="s">
         <v>8</v>
@@ -11182,25 +11182,25 @@
         <v>9</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
       <c r="I135" s="10"/>
       <c r="J135" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K135" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="47" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>8</v>
@@ -11209,25 +11209,25 @@
         <v>9</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
       <c r="J136" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K136" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="47" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>8</v>
@@ -11236,25 +11236,25 @@
         <v>9</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
       <c r="I137" s="10"/>
       <c r="J137" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K137" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="47" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>8</v>
@@ -11263,25 +11263,25 @@
         <v>9</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
       <c r="J138" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K138" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="47" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>8</v>
@@ -11290,25 +11290,25 @@
         <v>11</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
       <c r="I139" s="10"/>
       <c r="J139" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K139" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>8</v>
@@ -11317,25 +11317,25 @@
         <v>11</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
       <c r="I140" s="10"/>
       <c r="J140" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K140" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="47" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>8</v>
@@ -11344,25 +11344,25 @@
         <v>11</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
       <c r="I141" s="10"/>
       <c r="J141" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K141" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="47" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>8</v>
@@ -11371,25 +11371,25 @@
         <v>11</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
       <c r="I142" s="10"/>
       <c r="J142" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K142" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="47" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C143" s="10" t="s">
         <v>8</v>
@@ -11398,25 +11398,25 @@
         <v>11</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
       <c r="I143" s="10"/>
       <c r="J143" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K143" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="47" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C144" s="10" t="s">
         <v>8</v>
@@ -11425,25 +11425,25 @@
         <v>11</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
       <c r="I144" s="10"/>
       <c r="J144" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K144" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="47" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C145" s="10" t="s">
         <v>8</v>
@@ -11452,17 +11452,17 @@
         <v>11</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
       <c r="I145" s="10"/>
       <c r="J145" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K145" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -11493,10 +11493,10 @@
     </row>
     <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="47" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C148" s="10" t="s">
         <v>8</v>
@@ -11505,25 +11505,25 @@
         <v>11</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
       <c r="I148" s="10"/>
       <c r="J148" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K148" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="47" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C149" s="10" t="s">
         <v>8</v>
@@ -11532,25 +11532,25 @@
         <v>11</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
       <c r="I149" s="10"/>
       <c r="J149" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K149" s="48" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="47" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C150" s="10" t="s">
         <v>8</v>
@@ -11559,27 +11559,27 @@
         <v>11</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
       <c r="I150" s="10"/>
       <c r="J150" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K150" s="48" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="47" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C151" s="10" t="s">
         <v>8</v>
@@ -11588,25 +11588,25 @@
         <v>11</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F151" s="10"/>
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
       <c r="J151" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K151" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="47" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>8</v>
@@ -11615,25 +11615,25 @@
         <v>11</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
       <c r="I152" s="10"/>
       <c r="J152" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K152" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C153" s="10" t="s">
         <v>8</v>
@@ -11642,25 +11642,25 @@
         <v>11</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
       <c r="J153" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K153" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="47" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C154" s="10" t="s">
         <v>8</v>
@@ -11669,25 +11669,25 @@
         <v>11</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
       <c r="I154" s="10"/>
       <c r="J154" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K154" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="47" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C155" s="10" t="s">
         <v>8</v>
@@ -11696,25 +11696,25 @@
         <v>11</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
       <c r="I155" s="10"/>
       <c r="J155" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K155" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="47" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>8</v>
@@ -11723,25 +11723,25 @@
         <v>11</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
       <c r="J156" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K156" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="47" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C157" s="10" t="s">
         <v>8</v>
@@ -11750,25 +11750,25 @@
         <v>11</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
       <c r="I157" s="10"/>
       <c r="J157" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K157" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="47" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C158" s="10" t="s">
         <v>8</v>
@@ -11777,25 +11777,25 @@
         <v>11</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
       <c r="I158" s="10"/>
       <c r="J158" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K158" s="48" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="47" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>8</v>
@@ -11804,27 +11804,27 @@
         <v>11</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
       <c r="I159" s="10"/>
       <c r="J159" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K159" s="48" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="47" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>8</v>
@@ -11833,25 +11833,25 @@
         <v>11</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
       <c r="I160" s="10"/>
       <c r="J160" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K160" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="47" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>8</v>
@@ -11860,25 +11860,25 @@
         <v>11</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
       <c r="I161" s="10"/>
       <c r="J161" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K161" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="47" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C162" s="10" t="s">
         <v>8</v>
@@ -11887,25 +11887,25 @@
         <v>11</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
       <c r="I162" s="10"/>
       <c r="J162" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K162" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="47" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C163" s="10" t="s">
         <v>8</v>
@@ -11914,25 +11914,25 @@
         <v>11</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
       <c r="I163" s="10"/>
       <c r="J163" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K163" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="47" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C164" s="10" t="s">
         <v>8</v>
@@ -11941,25 +11941,25 @@
         <v>11</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
       <c r="I164" s="10"/>
       <c r="J164" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K164" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="47" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C165" s="10" t="s">
         <v>8</v>
@@ -11968,25 +11968,25 @@
         <v>11</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
       <c r="I165" s="10"/>
       <c r="J165" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K165" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="47" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C166" s="10" t="s">
         <v>8</v>
@@ -11995,25 +11995,25 @@
         <v>11</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F166" s="10"/>
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
       <c r="I166" s="10"/>
       <c r="J166" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K166" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="47" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C167" s="10" t="s">
         <v>8</v>
@@ -12022,27 +12022,27 @@
         <v>11</v>
       </c>
       <c r="E167" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="F167" s="10" t="s">
         <v>575</v>
-      </c>
-      <c r="F167" s="10" t="s">
-        <v>579</v>
       </c>
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
       <c r="J167" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K167" s="48" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="47" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C168" s="10" t="s">
         <v>8</v>
@@ -12051,25 +12051,25 @@
         <v>11</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F168" s="10"/>
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
       <c r="I168" s="10"/>
       <c r="J168" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K168" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="47" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C169" s="10" t="s">
         <v>8</v>
@@ -12078,25 +12078,25 @@
         <v>11</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
       <c r="I169" s="10"/>
       <c r="J169" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K169" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="47" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C170" s="10" t="s">
         <v>8</v>
@@ -12105,25 +12105,25 @@
         <v>11</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
       <c r="I170" s="10"/>
       <c r="J170" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K170" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="47" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C171" s="10" t="s">
         <v>8</v>
@@ -12132,25 +12132,25 @@
         <v>11</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F171" s="10"/>
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
       <c r="I171" s="10"/>
       <c r="J171" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K171" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="47" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C172" s="10" t="s">
         <v>8</v>
@@ -12159,25 +12159,25 @@
         <v>11</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F172" s="10"/>
       <c r="G172" s="10"/>
       <c r="H172" s="10"/>
       <c r="I172" s="10"/>
       <c r="J172" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K172" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="47" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C173" s="10" t="s">
         <v>8</v>
@@ -12186,25 +12186,25 @@
         <v>11</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F173" s="10"/>
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
       <c r="I173" s="10"/>
       <c r="J173" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K173" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="47" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C174" s="10" t="s">
         <v>8</v>
@@ -12213,25 +12213,25 @@
         <v>11</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F174" s="10"/>
       <c r="G174" s="10"/>
       <c r="H174" s="10"/>
       <c r="I174" s="10"/>
       <c r="J174" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K174" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="47" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C175" s="10" t="s">
         <v>8</v>
@@ -12240,25 +12240,25 @@
         <v>11</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F175" s="10"/>
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
       <c r="I175" s="10"/>
       <c r="J175" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K175" s="48" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="47" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C176" s="10" t="s">
         <v>8</v>
@@ -12267,27 +12267,27 @@
         <v>11</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F176" s="10" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
       <c r="I176" s="10"/>
       <c r="J176" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K176" s="48" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="47" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C177" s="10" t="s">
         <v>8</v>
@@ -12296,25 +12296,25 @@
         <v>11</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F177" s="10"/>
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
       <c r="I177" s="10"/>
       <c r="J177" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K177" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="47" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C178" s="10" t="s">
         <v>8</v>
@@ -12323,25 +12323,25 @@
         <v>11</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F178" s="10"/>
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
       <c r="J178" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K178" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="47" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C179" s="10" t="s">
         <v>8</v>
@@ -12350,25 +12350,25 @@
         <v>11</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F179" s="10"/>
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
       <c r="I179" s="10"/>
       <c r="J179" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K179" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="47" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C180" s="10" t="s">
         <v>8</v>
@@ -12377,25 +12377,25 @@
         <v>11</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
       <c r="I180" s="10"/>
       <c r="J180" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K180" s="58" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="47" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C181" s="10" t="s">
         <v>8</v>
@@ -12404,25 +12404,25 @@
         <v>11</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F181" s="10"/>
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
       <c r="I181" s="10"/>
       <c r="J181" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K181" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="47" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C182" s="10" t="s">
         <v>8</v>
@@ -12431,25 +12431,25 @@
         <v>11</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
       <c r="I182" s="10"/>
       <c r="J182" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K182" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="47" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C183" s="10" t="s">
         <v>8</v>
@@ -12458,25 +12458,25 @@
         <v>11</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F183" s="10"/>
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
       <c r="J183" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K183" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="47" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C184" s="10" t="s">
         <v>8</v>
@@ -12485,25 +12485,25 @@
         <v>11</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F184" s="10"/>
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
       <c r="I184" s="10"/>
       <c r="J184" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K184" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="47" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C185" s="10" t="s">
         <v>8</v>
@@ -12512,27 +12512,27 @@
         <v>11</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
       <c r="I185" s="10"/>
       <c r="J185" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K185" s="48" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="47" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C186" s="10" t="s">
         <v>8</v>
@@ -12541,25 +12541,25 @@
         <v>11</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F186" s="10"/>
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
       <c r="I186" s="10"/>
       <c r="J186" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K186" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="47" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C187" s="10" t="s">
         <v>8</v>
@@ -12568,17 +12568,17 @@
         <v>11</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F187" s="10"/>
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
       <c r="I187" s="10"/>
       <c r="J187" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K187" s="48" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -12664,7 +12664,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E1" s="71" t="s">
         <v>3</v>
@@ -12682,7 +12682,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="72" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -12727,24 +12727,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -12762,7 +12762,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -12771,7 +12771,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -13158,7 +13158,7 @@
         <v>194</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>0</v>

--- a/EWU_Dashboard_InputTemplate.xlsx
+++ b/EWU_Dashboard_InputTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarahSchmidt\Documents\sourcetree\MoEWe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D442DB-1C37-44D4-9D03-EC150A5C10E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF721D0-FE4E-4663-8A58-8DD31601FA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="620">
   <si>
     <t>input</t>
   </si>
@@ -3274,6 +3274,9 @@
   </si>
   <si>
     <t>Weighting factors are used to aggregate impact category wise calculated impacts and indicator scores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmidt, S.; Laner, D. (in preparation): Environmental Waste Utilization score to monitor the performance of waste management systems: A novel indicator applied to case studies in Germany </t>
   </si>
 </sst>
 </file>
@@ -3622,7 +3625,7 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3769,6 +3772,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5060,7 +5066,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5099,11 +5107,11 @@
       </c>
       <c r="B6" s="73"/>
     </row>
-    <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="74" t="s">
-        <v>608</v>
-      </c>
-      <c r="B7" s="73"/>
+    <row r="7" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="78" t="s">
+        <v>619</v>
+      </c>
+      <c r="B7" s="78"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
@@ -5210,8 +5218,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
